--- a/todolist-qa.xlsx
+++ b/todolist-qa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>模块</t>
   </si>
@@ -31,6 +31,9 @@
     <t>答疑</t>
   </si>
   <si>
+    <t>所属功能模块</t>
+  </si>
+  <si>
     <t>概览</t>
   </si>
   <si>
@@ -43,6 +46,12 @@
     <t>存储“32位邀请人地址”和“6位邀请码”之间映射关系</t>
   </si>
   <si>
+    <t>前端</t>
+  </si>
+  <si>
+    <t>首先实现前端的功能，其次实现Uniswap相关的功能，最后实现Token和Mian的功能</t>
+  </si>
+  <si>
     <t>推荐链接复制</t>
   </si>
   <si>
@@ -61,15 +70,24 @@
     <t>Apex Price的准确数据需要交易所的部分来提供，首矿开启前显示的应该都是初始发行单价</t>
   </si>
   <si>
+    <t>Uniswap</t>
+  </si>
+  <si>
     <t>提现</t>
   </si>
   <si>
+    <t>Main</t>
+  </si>
+  <si>
     <t>预计年化</t>
   </si>
   <si>
     <t>锁仓总量</t>
   </si>
   <si>
+    <t>Mian</t>
+  </si>
+  <si>
     <t>奖金池</t>
   </si>
   <si>
@@ -80,6 +98,9 @@
   </si>
   <si>
     <t>存量和加速实际一功能，前面是硬币点击的数量，一个硬币一个ETH，5个就是5个ETH，每一个支付之后就会被点亮。图里面表达的比较清楚。</t>
+  </si>
+  <si>
+    <t>Mian/LPToken</t>
   </si>
   <si>
     <t>加速</t>
@@ -104,7 +125,19 @@
     <t>APEX</t>
   </si>
   <si>
-    <t>info：锁仓总量、发行总量、持币地址...</t>
+    <t>发行总量</t>
+  </si>
+  <si>
+    <t>持币地址</t>
+  </si>
+  <si>
+    <t>前端/TokenView-Api</t>
+  </si>
+  <si>
+    <t>上线价格</t>
+  </si>
+  <si>
+    <t>上线时间</t>
   </si>
   <si>
     <t>流动资金池及涨跌幅</t>
@@ -199,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -220,8 +253,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,105 +337,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,22 +396,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,97 +406,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,79 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,17 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +635,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -617,11 +653,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,26 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,152 +702,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,9 +855,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -832,9 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1155,269 +1182,329 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D27"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="36.859375" customWidth="1"/>
-    <col min="3" max="3" width="30.6015625" customWidth="1"/>
+    <col min="3" max="3" width="30.609375" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="64.453125" customWidth="1"/>
+    <col min="6" max="6" width="33.65625" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="A4" s="2"/>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:7">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="34" spans="1:5">
-      <c r="A5" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="34" spans="1:7">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="23" customHeight="1" spans="1:5">
-      <c r="A11" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" ht="23" customHeight="1" spans="1:7">
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="84" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" ht="84" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="36" customHeight="1" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -1425,52 +1512,62 @@
         <v>46</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" ht="36" customHeight="1" spans="1:7">
+      <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" ht="34" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="5">
-        <v>6</v>
+      <c r="D25" s="1">
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="31" spans="1:5">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -1478,25 +1575,79 @@
         <v>57</v>
       </c>
       <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" ht="34" spans="1:5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" ht="31" spans="1:5">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>58</v>
+      <c r="E31" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D14:D22"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G2:G24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
